--- a/bank statement generator/bank_statements/statement_101.xlsx
+++ b/bank statement generator/bank_statements/statement_101.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 24.01.2024</t>
+          <t>KONTOSTAND AM 06.02.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,66 +759,66 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>27.01.</t>
+          <t>08.02.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>28.01.</t>
+          <t>09.02.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-12945226</t>
+          <t>BEITRAG Allianz SE K-90207280</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>54,16-</t>
+          <t>57,46-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>29.01.</t>
+          <t>12.02.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>30.01.</t>
+          <t>13.02.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./29.01 LIDL RO</t>
+          <t>ZALANDO MKTPLC EU ZKVXCF</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>142,44-</t>
+          <t>124,75-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>30.01.</t>
+          <t>13.02.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>31.01.</t>
+          <t>14.02.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>BURGER KING Neustadt am Rübenberge</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>13,67-</t>
+          <t>25,46-</t>
         </is>
       </c>
     </row>
@@ -845,12 +845,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 01.02.2024</t>
+          <t>KONTOSTAND AM 18.02.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>210,27-</t>
+          <t>207,67-</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 07.02.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 26.02.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
